--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Adresse(s) de télécommunication (numéro de téléphone, adresse email, URL, etc.) du parent.</t>
+  </si>
+  <si>
+    <t>Parent.PersonnePhysique</t>
+  </si>
+  <si>
+    <t>Lien vers la classe PersonnePhysique</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1245,6 +1251,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Parent.xlsx
+++ b/ML/ig/StructureDefinition-Parent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
